--- a/soa/in3corp_ISOCORP_SOA_V3.1_2025.xlsx
+++ b/soa/in3corp_ISOCORP_SOA_V3.1_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth Asthana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731C2A4-BE36-427D-A357-EE32B617F2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849970F-7B1B-409B-8E0F-0B7476D9A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="382">
   <si>
     <t>Applicable Controls</t>
   </si>
@@ -801,9 +801,6 @@
     <t xml:space="preserve">Communication channels have been established to ensure that information security responsibilities, policies, and incident reporting procedures are effectively conveyed to internal and external stakeholders. </t>
   </si>
   <si>
-    <t>In3Corp_ISOCORP_C7.2_CM_V2.0.docx</t>
-  </si>
-  <si>
     <t>Documented information is maintained to support the operation of the ISMS and provide evidence of compliance with ISO 27001 requirements. Policies, procedures, records, and logs are created, controlled, and regularly reviewed to ensure accuracy, consistency, and availability.</t>
   </si>
   <si>
@@ -1135,6 +1132,75 @@
   </si>
   <si>
     <t>in3isocorp A.8.34, Internal IT Audits using TechTracker</t>
+  </si>
+  <si>
+    <t>in3isocorp 4.1, latest copy of ISO27001-2022 attached</t>
+  </si>
+  <si>
+    <t>in3isocorp 4.2, documents attached</t>
+  </si>
+  <si>
+    <t>in3isocorp 4.3, defines the scope</t>
+  </si>
+  <si>
+    <t>in3isocorp 4.4</t>
+  </si>
+  <si>
+    <t>in3isocorp 5.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 5.2, policies attached in A.5.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 5.3, Job Descriptions attached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in3isocorp 6.1, risk and treatment methodology attached </t>
+  </si>
+  <si>
+    <t>in3isocorp 6.2, documents attached</t>
+  </si>
+  <si>
+    <t>in3isocorp 6.3, A.5.1, A.5.3, A.8.9, A.5.31, A.5.4</t>
+  </si>
+  <si>
+    <t>in3isocorp 7.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 7.2, Communication matrix attached</t>
+  </si>
+  <si>
+    <t>in3isocorp 7.3, Training Tool is utlized for awareness on information security</t>
+  </si>
+  <si>
+    <t>in3isocorp 7.4, document attached</t>
+  </si>
+  <si>
+    <t>in3isocorp 7.5, In3Corp_ISOCORP_C7.2_CM_V2.0.docx</t>
+  </si>
+  <si>
+    <t>in3isocorp 8.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 8.3, risk methodology attached under 6.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 8.2, risk methodology attached under 6.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 9.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 9.2, TechTracker</t>
+  </si>
+  <si>
+    <t>in3isocorp 9.3</t>
+  </si>
+  <si>
+    <t>in3isocorp 10.1</t>
+  </si>
+  <si>
+    <t>in3isocorp 10.2</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1585,23 +1651,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1661,16 +1719,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1680,18 +1755,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2068,342 +2131,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="28" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="41"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="41"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="41"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="41"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="41"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="41"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="41"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="49"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="17" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="17" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="48">
         <v>3</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="50"/>
+      <c r="G16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12">
+      <c r="L16" s="49"/>
+      <c r="M16" s="51">
         <v>44994</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="51"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="48">
         <v>3.1</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="12">
+      <c r="F17" s="50"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="51">
         <v>45113</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="51"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I4"/>
-    <mergeCell ref="J1:N4"/>
-    <mergeCell ref="A5:N13"/>
-    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="A16:B16"/>
@@ -2418,20 +2490,11 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="E1:I4"/>
+    <mergeCell ref="J1:N4"/>
+    <mergeCell ref="A5:N13"/>
+    <mergeCell ref="A14:N14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2443,8 +2506,8 @@
   <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2454,46 +2517,46 @@
     <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="7.77734375" style="3" customWidth="1"/>
     <col min="7" max="7" width="40.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="40.77734375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="40.77734375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="4">
         <v>116</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="54"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -2509,39 +2572,39 @@
       <c r="G3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2553,13 +2616,15 @@
       <c r="G6" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="58"/>
+      <c r="H6" s="13" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
@@ -2571,13 +2636,15 @@
       <c r="G7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="58"/>
+      <c r="H7" s="13" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2589,13 +2656,15 @@
       <c r="G8" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="13" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
@@ -2607,25 +2676,27 @@
       <c r="G9" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="13" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
@@ -2637,13 +2708,15 @@
       <c r="G11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="58"/>
+      <c r="H11" s="13" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
@@ -2655,13 +2728,15 @@
       <c r="G12" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="58"/>
+      <c r="H12" s="13" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
@@ -2673,25 +2748,27 @@
       <c r="G13" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="H13" s="58"/>
+      <c r="H13" s="13" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
@@ -2703,13 +2780,15 @@
       <c r="G15" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="13" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
@@ -2721,13 +2800,15 @@
       <c r="G16" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="13" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
@@ -2739,25 +2820,27 @@
       <c r="G17" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="13" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2769,13 +2852,15 @@
       <c r="G19" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="58"/>
+      <c r="H19" s="13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
@@ -2787,13 +2872,15 @@
       <c r="G20" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="58"/>
+      <c r="H20" s="13" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="9" t="s">
         <v>14</v>
       </c>
@@ -2805,13 +2892,15 @@
       <c r="G21" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="58"/>
+      <c r="H21" s="13" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="9" t="s">
         <v>14</v>
       </c>
@@ -2823,13 +2912,15 @@
       <c r="G22" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="58"/>
+      <c r="H22" s="13" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="50"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="9" t="s">
         <v>14</v>
       </c>
@@ -2839,29 +2930,29 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H23" s="59" t="s">
         <v>248</v>
       </c>
+      <c r="H23" s="13" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
     </row>
     <row r="25" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
@@ -2871,15 +2962,17 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="58"/>
+        <v>249</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
@@ -2889,15 +2982,17 @@
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="58"/>
+        <v>250</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="50"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
@@ -2907,27 +3002,29 @@
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="H27" s="58"/>
+        <v>251</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="9" t="s">
         <v>14</v>
       </c>
@@ -2937,15 +3034,17 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H29" s="58"/>
+        <v>252</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="9" t="s">
         <v>14</v>
       </c>
@@ -2957,13 +3056,15 @@
       <c r="G30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="58"/>
+      <c r="H30" s="13" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="9" t="s">
         <v>14</v>
       </c>
@@ -2975,25 +3076,27 @@
       <c r="G31" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="13" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
     </row>
     <row r="33" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="50"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="9" t="s">
         <v>14</v>
       </c>
@@ -3003,15 +3106,17 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" s="58"/>
+        <v>253</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="50"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="9" t="s">
         <v>14</v>
       </c>
@@ -3021,27 +3126,29 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="H34" s="58"/>
+        <v>254</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="50"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
@@ -3055,15 +3162,15 @@
       <c r="G36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="58" t="s">
-        <v>267</v>
+      <c r="H36" s="13" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="50"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
@@ -3075,15 +3182,15 @@
       <c r="G37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="58" t="s">
-        <v>268</v>
+      <c r="H37" s="13" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
@@ -3095,15 +3202,15 @@
       <c r="G38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="58" t="s">
-        <v>269</v>
+      <c r="H38" s="13" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="9" t="s">
         <v>14</v>
       </c>
@@ -3115,15 +3222,15 @@
       <c r="G39" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="58" t="s">
-        <v>270</v>
+      <c r="H39" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="9" t="s">
         <v>14</v>
       </c>
@@ -3135,15 +3242,15 @@
       <c r="G40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="58" t="s">
-        <v>271</v>
+      <c r="H40" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
@@ -3155,15 +3262,15 @@
       <c r="G41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="58" t="s">
-        <v>272</v>
+      <c r="H41" s="13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="9" t="s">
         <v>14</v>
       </c>
@@ -3173,17 +3280,17 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>273</v>
+        <v>262</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="9" t="s">
         <v>14</v>
       </c>
@@ -3195,15 +3302,15 @@
       <c r="G43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="58" t="s">
-        <v>274</v>
+      <c r="H43" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="50"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="9" t="s">
         <v>14</v>
       </c>
@@ -3215,15 +3322,15 @@
       <c r="G44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="58" t="s">
-        <v>275</v>
+      <c r="H44" s="13" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="50"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="9" t="s">
         <v>14</v>
       </c>
@@ -3235,15 +3342,15 @@
       <c r="G45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="58" t="s">
-        <v>276</v>
+      <c r="H45" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="50"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="9" t="s">
         <v>14</v>
       </c>
@@ -3255,15 +3362,15 @@
       <c r="G46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="58" t="s">
-        <v>277</v>
+      <c r="H46" s="13" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="50"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="9" t="s">
         <v>14</v>
       </c>
@@ -3275,15 +3382,15 @@
       <c r="G47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="58" t="s">
-        <v>278</v>
+      <c r="H47" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="50"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="9" t="s">
         <v>14</v>
       </c>
@@ -3295,15 +3402,15 @@
       <c r="G48" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="58" t="s">
-        <v>279</v>
+      <c r="H48" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="50"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
@@ -3315,15 +3422,15 @@
       <c r="G49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="58" t="s">
-        <v>280</v>
+      <c r="H49" s="13" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="50"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="9" t="s">
         <v>14</v>
       </c>
@@ -3335,15 +3442,15 @@
       <c r="G50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="58" t="s">
-        <v>281</v>
+      <c r="H50" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="50"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="9" t="s">
         <v>14</v>
       </c>
@@ -3353,17 +3460,17 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>282</v>
+        <v>263</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="50"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="9" t="s">
         <v>14</v>
       </c>
@@ -3375,15 +3482,15 @@
       <c r="G52" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H52" s="58" t="s">
-        <v>283</v>
+      <c r="H52" s="13" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="50"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="9" t="s">
         <v>14</v>
       </c>
@@ -3395,15 +3502,15 @@
       <c r="G53" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="58" t="s">
-        <v>284</v>
+      <c r="H53" s="13" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="50"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="9" t="s">
         <v>14</v>
       </c>
@@ -3415,15 +3522,15 @@
       <c r="G54" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H54" s="58" t="s">
-        <v>285</v>
+      <c r="H54" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="50"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="9" t="s">
         <v>14</v>
       </c>
@@ -3435,15 +3542,15 @@
       <c r="G55" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H55" s="58" t="s">
-        <v>286</v>
+      <c r="H55" s="13" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="50"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="9" t="s">
         <v>14</v>
       </c>
@@ -3455,15 +3562,15 @@
       <c r="G56" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H56" s="58" t="s">
-        <v>287</v>
+      <c r="H56" s="13" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="50"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="9" t="s">
         <v>14</v>
       </c>
@@ -3475,15 +3582,15 @@
       <c r="G57" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="58" t="s">
-        <v>288</v>
+      <c r="H57" s="13" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="50"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="9" t="s">
         <v>14</v>
       </c>
@@ -3493,17 +3600,17 @@
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H58" s="58" t="s">
-        <v>289</v>
+        <v>264</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="50"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="9" t="s">
         <v>14</v>
       </c>
@@ -3515,15 +3622,15 @@
       <c r="G59" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H59" s="58" t="s">
-        <v>290</v>
+      <c r="H59" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="50"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="9" t="s">
         <v>14</v>
       </c>
@@ -3535,15 +3642,15 @@
       <c r="G60" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H60" s="58" t="s">
-        <v>291</v>
+      <c r="H60" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="50" t="s">
+      <c r="A61" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="50"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
@@ -3555,15 +3662,15 @@
       <c r="G61" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H61" s="58" t="s">
-        <v>292</v>
+      <c r="H61" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="50" t="s">
+      <c r="A62" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="50"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="9" t="s">
         <v>14</v>
       </c>
@@ -3575,15 +3682,15 @@
       <c r="G62" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H62" s="58" t="s">
-        <v>293</v>
+      <c r="H62" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="50" t="s">
+      <c r="A63" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="50"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="9" t="s">
         <v>14</v>
       </c>
@@ -3595,15 +3702,15 @@
       <c r="G63" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H63" s="58" t="s">
-        <v>294</v>
+      <c r="H63" s="13" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="50"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
@@ -3613,17 +3720,17 @@
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="H64" s="58" t="s">
-        <v>295</v>
+        <v>265</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="50"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="9" t="s">
         <v>14</v>
       </c>
@@ -3635,15 +3742,15 @@
       <c r="G65" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H65" s="58" t="s">
-        <v>296</v>
+      <c r="H65" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="50" t="s">
+      <c r="A66" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="50"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="9" t="s">
         <v>14</v>
       </c>
@@ -3655,15 +3762,15 @@
       <c r="G66" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H66" s="58" t="s">
-        <v>297</v>
+      <c r="H66" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="50"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="9" t="s">
         <v>14</v>
       </c>
@@ -3675,15 +3782,15 @@
       <c r="G67" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H67" s="58" t="s">
-        <v>298</v>
+      <c r="H67" s="13" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="50"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="9" t="s">
         <v>14</v>
       </c>
@@ -3695,15 +3802,15 @@
       <c r="G68" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H68" s="58" t="s">
-        <v>299</v>
+      <c r="H68" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="50" t="s">
+      <c r="A69" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="50"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="9" t="s">
         <v>14</v>
       </c>
@@ -3715,15 +3822,15 @@
       <c r="G69" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H69" s="58" t="s">
-        <v>300</v>
+      <c r="H69" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="50"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="9" t="s">
         <v>14</v>
       </c>
@@ -3735,15 +3842,15 @@
       <c r="G70" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H70" s="58" t="s">
-        <v>301</v>
+      <c r="H70" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="50"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="9" t="s">
         <v>14</v>
       </c>
@@ -3755,15 +3862,15 @@
       <c r="G71" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H71" s="58" t="s">
-        <v>302</v>
+      <c r="H71" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="50"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="9" t="s">
         <v>14</v>
       </c>
@@ -3775,27 +3882,27 @@
       <c r="G72" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H72" s="58" t="s">
-        <v>303</v>
+      <c r="H72" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="55"/>
     </row>
     <row r="74" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="50"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="9" t="s">
         <v>14</v>
       </c>
@@ -3807,15 +3914,15 @@
       <c r="G74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H74" s="58" t="s">
-        <v>304</v>
+      <c r="H74" s="13" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="50"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="9" t="s">
         <v>14</v>
       </c>
@@ -3827,15 +3934,15 @@
       <c r="G75" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="58" t="s">
-        <v>305</v>
+      <c r="H75" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="50"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="9" t="s">
         <v>14</v>
       </c>
@@ -3847,15 +3954,15 @@
       <c r="G76" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H76" s="58" t="s">
-        <v>306</v>
+      <c r="H76" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="50"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="9" t="s">
         <v>14</v>
       </c>
@@ -3867,15 +3974,15 @@
       <c r="G77" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H77" s="58" t="s">
-        <v>307</v>
+      <c r="H77" s="13" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="50"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="9" t="s">
         <v>14</v>
       </c>
@@ -3887,15 +3994,15 @@
       <c r="G78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H78" s="58" t="s">
-        <v>308</v>
+      <c r="H78" s="13" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="50"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="9" t="s">
         <v>14</v>
       </c>
@@ -3907,15 +4014,15 @@
       <c r="G79" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H79" s="58" t="s">
-        <v>309</v>
+      <c r="H79" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="50"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="9" t="s">
         <v>14</v>
       </c>
@@ -3927,15 +4034,15 @@
       <c r="G80" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H80" s="58" t="s">
-        <v>310</v>
+      <c r="H80" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="50"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="9" t="s">
         <v>14</v>
       </c>
@@ -3947,27 +4054,27 @@
       <c r="G81" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H81" s="58" t="s">
-        <v>311</v>
+      <c r="H81" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="53" t="s">
+      <c r="A82" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="55"/>
+      <c r="H82" s="55"/>
     </row>
     <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="51" t="s">
+      <c r="A83" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="50"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="9" t="s">
         <v>14</v>
       </c>
@@ -3979,15 +4086,15 @@
       <c r="G83" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H83" s="58" t="s">
-        <v>312</v>
+      <c r="H83" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B84" s="50"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="9" t="s">
         <v>14</v>
       </c>
@@ -3999,15 +4106,15 @@
       <c r="G84" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H84" s="58" t="s">
-        <v>313</v>
+      <c r="H84" s="13" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B85" s="50"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
@@ -4019,15 +4126,15 @@
       <c r="G85" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H85" s="58" t="s">
-        <v>314</v>
+      <c r="H85" s="13" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="50"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
@@ -4039,15 +4146,15 @@
       <c r="G86" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H86" s="58" t="s">
-        <v>315</v>
+      <c r="H86" s="13" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="50" t="s">
+      <c r="A87" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="50"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
@@ -4059,15 +4166,15 @@
       <c r="G87" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H87" s="58" t="s">
-        <v>316</v>
+      <c r="H87" s="13" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="50" t="s">
+      <c r="A88" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B88" s="50"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="9" t="s">
         <v>14</v>
       </c>
@@ -4079,15 +4186,15 @@
       <c r="G88" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H88" s="58" t="s">
-        <v>317</v>
+      <c r="H88" s="13" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="50" t="s">
+      <c r="A89" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B89" s="50"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="9" t="s">
         <v>14</v>
       </c>
@@ -4099,15 +4206,15 @@
       <c r="G89" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="58" t="s">
-        <v>318</v>
+      <c r="H89" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="50" t="s">
+      <c r="A90" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="50"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
@@ -4119,15 +4226,15 @@
       <c r="G90" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H90" s="58" t="s">
-        <v>319</v>
+      <c r="H90" s="13" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="50" t="s">
+      <c r="A91" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="50"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="9" t="s">
         <v>14</v>
       </c>
@@ -4139,15 +4246,15 @@
       <c r="G91" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H91" s="58" t="s">
-        <v>320</v>
+      <c r="H91" s="13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="50" t="s">
+      <c r="A92" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="B92" s="50"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="9" t="s">
         <v>14</v>
       </c>
@@ -4159,15 +4266,15 @@
       <c r="G92" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H92" s="58" t="s">
-        <v>321</v>
+      <c r="H92" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B93" s="50"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="9" t="s">
         <v>14</v>
       </c>
@@ -4179,15 +4286,15 @@
       <c r="G93" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H93" s="58" t="s">
-        <v>322</v>
+      <c r="H93" s="13" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="50"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="9" t="s">
         <v>14</v>
       </c>
@@ -4199,15 +4306,15 @@
       <c r="G94" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H94" s="58" t="s">
-        <v>323</v>
+      <c r="H94" s="13" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="50" t="s">
+      <c r="A95" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="50"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="9" t="s">
         <v>14</v>
       </c>
@@ -4219,15 +4326,15 @@
       <c r="G95" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H95" s="58" t="s">
-        <v>324</v>
+      <c r="H95" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="50" t="s">
+      <c r="A96" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="B96" s="50"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="9" t="s">
         <v>14</v>
       </c>
@@ -4239,27 +4346,27 @@
       <c r="G96" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H96" s="58" t="s">
-        <v>325</v>
+      <c r="H96" s="13" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+      <c r="H97" s="55"/>
     </row>
     <row r="98" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B98" s="50"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="9" t="s">
         <v>14</v>
       </c>
@@ -4269,17 +4376,17 @@
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H98" s="58" t="s">
-        <v>326</v>
+        <v>255</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="50"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="9" t="s">
         <v>14</v>
       </c>
@@ -4291,15 +4398,15 @@
       <c r="G99" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="58" t="s">
-        <v>327</v>
+      <c r="H99" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A100" s="50" t="s">
+      <c r="A100" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="B100" s="50"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="9" t="s">
         <v>14</v>
       </c>
@@ -4311,15 +4418,15 @@
       <c r="G100" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H100" s="58" t="s">
-        <v>328</v>
+      <c r="H100" s="13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="50" t="s">
+      <c r="A101" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="50"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="9" t="s">
         <v>14</v>
       </c>
@@ -4331,15 +4438,15 @@
       <c r="G101" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="58" t="s">
-        <v>329</v>
+      <c r="H101" s="13" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="50" t="s">
+      <c r="A102" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="50"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="9" t="s">
         <v>14</v>
       </c>
@@ -4351,15 +4458,15 @@
       <c r="G102" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="58" t="s">
-        <v>330</v>
+      <c r="H102" s="13" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="50"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="9" t="s">
         <v>14</v>
       </c>
@@ -4373,15 +4480,15 @@
       <c r="G103" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H103" s="58" t="s">
-        <v>331</v>
+      <c r="H103" s="13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="50"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="9" t="s">
         <v>14</v>
       </c>
@@ -4393,15 +4500,15 @@
       <c r="G104" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H104" s="58" t="s">
-        <v>332</v>
+      <c r="H104" s="13" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="50" t="s">
+      <c r="A105" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="50"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="9" t="s">
         <v>14</v>
       </c>
@@ -4413,15 +4520,15 @@
       <c r="G105" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H105" s="58" t="s">
-        <v>333</v>
+      <c r="H105" s="13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="50" t="s">
+      <c r="A106" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B106" s="50"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="9" t="s">
         <v>14</v>
       </c>
@@ -4431,17 +4538,17 @@
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H106" s="58" t="s">
-        <v>334</v>
+        <v>256</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="50"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="9" t="s">
         <v>14</v>
       </c>
@@ -4451,17 +4558,17 @@
         <v>209</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="H107" s="58" t="s">
-        <v>335</v>
+        <v>257</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="50" t="s">
+      <c r="A108" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B108" s="50"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="9" t="s">
         <v>14</v>
       </c>
@@ -4471,17 +4578,17 @@
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
       <c r="G108" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="H108" s="58" t="s">
-        <v>336</v>
+        <v>258</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="50" t="s">
+      <c r="A109" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="50"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="9" t="s">
         <v>14</v>
       </c>
@@ -4491,17 +4598,17 @@
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="H109" s="58" t="s">
-        <v>337</v>
+        <v>259</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="B110" s="50"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="9" t="s">
         <v>14</v>
       </c>
@@ -4513,15 +4620,15 @@
       <c r="G110" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H110" s="58" t="s">
-        <v>338</v>
+      <c r="H110" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B111" s="50"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="9" t="s">
         <v>14</v>
       </c>
@@ -4533,15 +4640,15 @@
       <c r="G111" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H111" s="58" t="s">
-        <v>339</v>
+      <c r="H111" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="50" t="s">
+      <c r="A112" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="50"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="9" t="s">
         <v>14</v>
       </c>
@@ -4555,15 +4662,15 @@
       <c r="G112" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H112" s="58" t="s">
-        <v>340</v>
+      <c r="H112" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="50" t="s">
+      <c r="A113" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B113" s="50"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="9" t="s">
         <v>14</v>
       </c>
@@ -4575,15 +4682,15 @@
       <c r="G113" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H113" s="58" t="s">
-        <v>341</v>
+      <c r="H113" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="50" t="s">
+      <c r="A114" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="B114" s="50"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="9" t="s">
         <v>14</v>
       </c>
@@ -4597,15 +4704,15 @@
       <c r="G114" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H114" s="58" t="s">
-        <v>342</v>
+      <c r="H114" s="13" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="B115" s="50"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="9" t="s">
         <v>14</v>
       </c>
@@ -4617,15 +4724,15 @@
       <c r="G115" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H115" s="58" t="s">
-        <v>343</v>
+      <c r="H115" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="50" t="s">
+      <c r="A116" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B116" s="50"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="9" t="s">
         <v>14</v>
       </c>
@@ -4637,15 +4744,15 @@
       <c r="G116" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H116" s="58" t="s">
-        <v>344</v>
+      <c r="H116" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="50" t="s">
+      <c r="A117" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="B117" s="50"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="9" t="s">
         <v>14</v>
       </c>
@@ -4657,15 +4764,15 @@
       <c r="G117" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H117" s="58" t="s">
-        <v>345</v>
+      <c r="H117" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="50" t="s">
+      <c r="A118" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="B118" s="50"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="9" t="s">
         <v>14</v>
       </c>
@@ -4677,15 +4784,15 @@
       <c r="G118" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H118" s="58" t="s">
-        <v>346</v>
+      <c r="H118" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="50" t="s">
+      <c r="A119" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="B119" s="50"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="9" t="s">
         <v>14</v>
       </c>
@@ -4697,15 +4804,15 @@
       <c r="G119" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H119" s="58" t="s">
-        <v>347</v>
+      <c r="H119" s="13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B120" s="50"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="9" t="s">
         <v>14</v>
       </c>
@@ -4715,17 +4822,17 @@
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H120" s="58" t="s">
-        <v>348</v>
+        <v>260</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="50" t="s">
+      <c r="A121" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B121" s="50"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="9" t="s">
         <v>14</v>
       </c>
@@ -4737,15 +4844,15 @@
       <c r="G121" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H121" s="58" t="s">
-        <v>349</v>
+      <c r="H121" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="50" t="s">
+      <c r="A122" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="B122" s="50"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="9" t="s">
         <v>14</v>
       </c>
@@ -4757,15 +4864,15 @@
       <c r="G122" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H122" s="58" t="s">
-        <v>350</v>
+      <c r="H122" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="50" t="s">
+      <c r="A123" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B123" s="50"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="9" t="s">
         <v>14</v>
       </c>
@@ -4775,17 +4882,17 @@
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H123" s="58" t="s">
-        <v>351</v>
+        <v>261</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="50" t="s">
+      <c r="A124" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="50"/>
+      <c r="B124" s="54"/>
       <c r="C124" s="9" t="s">
         <v>14</v>
       </c>
@@ -4797,15 +4904,15 @@
       <c r="G124" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H124" s="58" t="s">
-        <v>352</v>
+      <c r="H124" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A125" s="50" t="s">
+      <c r="A125" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="B125" s="50"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="9" t="s">
         <v>14</v>
       </c>
@@ -4817,15 +4924,15 @@
       <c r="G125" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H125" s="58" t="s">
-        <v>353</v>
+      <c r="H125" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="50" t="s">
+      <c r="A126" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="B126" s="50"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="9" t="s">
         <v>14</v>
       </c>
@@ -4837,15 +4944,15 @@
       <c r="G126" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H126" s="58" t="s">
-        <v>354</v>
+      <c r="H126" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="50" t="s">
+      <c r="A127" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="B127" s="50"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="9" t="s">
         <v>14</v>
       </c>
@@ -4857,15 +4964,15 @@
       <c r="G127" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H127" s="58" t="s">
-        <v>355</v>
+      <c r="H127" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="50" t="s">
+      <c r="A128" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="50"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="9" t="s">
         <v>14</v>
       </c>
@@ -4877,15 +4984,15 @@
       <c r="G128" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H128" s="58" t="s">
-        <v>356</v>
+      <c r="H128" s="13" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="50" t="s">
+      <c r="A129" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="B129" s="50"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="9" t="s">
         <v>14</v>
       </c>
@@ -4897,15 +5004,15 @@
       <c r="G129" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H129" s="58" t="s">
-        <v>357</v>
+      <c r="H129" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A130" s="50" t="s">
+      <c r="A130" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="50"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="9" t="s">
         <v>14</v>
       </c>
@@ -4917,15 +5024,15 @@
       <c r="G130" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H130" s="58" t="s">
-        <v>358</v>
+      <c r="H130" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="B131" s="50"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="9" t="s">
         <v>14</v>
       </c>
@@ -4937,8 +5044,8 @@
       <c r="G131" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H131" s="58" t="s">
-        <v>359</v>
+      <c r="H131" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4946,6 +5053,115 @@
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
   <mergeCells count="133">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A5:H5"/>
@@ -4970,115 +5186,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
